--- a/production_data/planing_data.xlsx
+++ b/production_data/planing_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -386,7 +386,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
